--- a/franz_hsa/hsa_calculation/hsa_execution_parameters.xlsx
+++ b/franz_hsa/hsa_calculation/hsa_execution_parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franz\Documents\work\projects\arp\quantification-methods\hsa\3dphoto\franz_hsa\hsa_calculation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51697BF7-48CC-462E-95DC-5877428B6832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F11168-A231-4ED9-94C9-BFCFB2823A8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -421,7 +421,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/franz_hsa/hsa_calculation/hsa_execution_parameters.xlsx
+++ b/franz_hsa/hsa_calculation/hsa_execution_parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franz\Documents\work\projects\arp\quantification-methods\hsa\3dphoto\franz_hsa\hsa_calculation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F11168-A231-4ED9-94C9-BFCFB2823A8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51082423-99B4-49ED-A8C9-002D6B0732C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>data_type</t>
   </si>
@@ -60,9 +60,6 @@
     <t>landmark_placement</t>
   </si>
   <si>
-    <t>manual</t>
-  </si>
-  <si>
     <t>export_landmarks</t>
   </si>
   <si>
@@ -76,6 +73,12 @@
   </si>
   <si>
     <t>exp_data_path</t>
+  </si>
+  <si>
+    <t>manually</t>
+  </si>
+  <si>
+    <t>verbose</t>
   </si>
 </sst>
 </file>
@@ -134,10 +137,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,9 +445,9 @@
     <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -454,7 +459,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -472,13 +477,16 @@
         <v>10</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="M1" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -486,13 +494,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2" s="2">
         <v>200</v>
@@ -507,12 +515,15 @@
         <v>0</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="K2" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M2" s="4" t="b">
         <v>1</v>
       </c>
     </row>

--- a/franz_hsa/hsa_calculation/hsa_execution_parameters.xlsx
+++ b/franz_hsa/hsa_calculation/hsa_execution_parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franz\Documents\work\projects\arp\quantification-methods\hsa\3dphoto\franz_hsa\hsa_calculation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51082423-99B4-49ED-A8C9-002D6B0732C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A0BD2D-FF54-4AB8-B4F8-F54E3C6383D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>data_type</t>
   </si>
@@ -69,9 +69,6 @@
     <t>downsampled</t>
   </si>
   <si>
-    <t>synthetic_data\synthetic_data_downsampled_untextured_unclipped_vtp_paraview</t>
-  </si>
-  <si>
     <t>exp_data_path</t>
   </si>
   <si>
@@ -79,6 +76,36 @@
   </si>
   <si>
     <t>verbose</t>
+  </si>
+  <si>
+    <t>automatically</t>
+  </si>
+  <si>
+    <t>original</t>
+  </si>
+  <si>
+    <t>_ctp.vtp</t>
+  </si>
+  <si>
+    <t>.vtp</t>
+  </si>
+  <si>
+    <t>C:\Users\franz\Documents\work\projects\arp\data\synthetic_data\synthetic_data_original_untextured_unclipped_vtp_paraview</t>
+  </si>
+  <si>
+    <t>C:\Users\franz\Documents\work\projects\arp\data\synthetic_data\synthetic_data_downsampled_untextured_unclipped_vtp_paraview</t>
+  </si>
+  <si>
+    <t>file_ending</t>
+  </si>
+  <si>
+    <t>manual_landmarks</t>
+  </si>
+  <si>
+    <t>{"TRAGION_RIGHT": "4229", "TRAGION_LEFT": "7168", "NASION": "5944"}</t>
+  </si>
+  <si>
+    <t>{"TRAGION_RIGHT": "4869", "TRAGION_LEFT": "2431", "NASION": "9396"}</t>
   </si>
 </sst>
 </file>
@@ -137,12 +164,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,17 +460,19 @@
     <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="77.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="125.28515625" customWidth="1"/>
+    <col min="6" max="6" width="33.7109375" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="66.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -459,34 +486,40 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>17</v>
+      <c r="O1" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -500,30 +533,130 @@
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="2">
+        <v>22</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2">
         <v>200</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="M2" s="4" t="b">
+      <c r="I2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O2" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3">
+        <v>200</v>
+      </c>
+      <c r="H3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N3" t="b">
+        <v>0</v>
+      </c>
+      <c r="O3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4">
+        <v>200</v>
+      </c>
+      <c r="H4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" t="b">
+        <v>1</v>
+      </c>
+      <c r="N4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O4" t="b">
         <v>1</v>
       </c>
     </row>

--- a/franz_hsa/hsa_calculation/hsa_execution_parameters.xlsx
+++ b/franz_hsa/hsa_calculation/hsa_execution_parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franz\Documents\work\projects\arp\quantification-methods\hsa\3dphoto\franz_hsa\hsa_calculation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A0BD2D-FF54-4AB8-B4F8-F54E3C6383D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DABED933-661D-4B9B-8EA9-12E76598F988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
   <si>
     <t>data_type</t>
   </si>
@@ -448,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -660,6 +660,50 @@
         <v>1</v>
       </c>
     </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5">
+        <v>200</v>
+      </c>
+      <c r="H5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" t="b">
+        <v>1</v>
+      </c>
+      <c r="N5" t="b">
+        <v>1</v>
+      </c>
+      <c r="O5" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/franz_hsa/hsa_calculation/hsa_execution_parameters.xlsx
+++ b/franz_hsa/hsa_calculation/hsa_execution_parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franz\Documents\work\projects\arp\quantification-methods\hsa\3dphoto\franz_hsa\hsa_calculation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DABED933-661D-4B9B-8EA9-12E76598F988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0A5CD2-DD30-40ED-9C8B-38ECC8101955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4215" yWindow="-15480" windowWidth="19440" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -72,15 +72,9 @@
     <t>exp_data_path</t>
   </si>
   <si>
-    <t>manually</t>
-  </si>
-  <si>
     <t>verbose</t>
   </si>
   <si>
-    <t>automatically</t>
-  </si>
-  <si>
     <t>original</t>
   </si>
   <si>
@@ -106,6 +100,12 @@
   </si>
   <si>
     <t>{"TRAGION_RIGHT": "4869", "TRAGION_LEFT": "2431", "NASION": "9396"}</t>
+  </si>
+  <si>
+    <t>manual</t>
+  </si>
+  <si>
+    <t>automatic</t>
   </si>
 </sst>
 </file>
@@ -450,29 +450,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="125.28515625" customWidth="1"/>
-    <col min="6" max="6" width="33.7109375" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="125.33203125" customWidth="1"/>
+    <col min="6" max="6" width="33.6640625" customWidth="1"/>
+    <col min="7" max="7" width="20.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="66.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="66.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -489,7 +489,7 @@
         <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -507,7 +507,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>11</v>
@@ -516,10 +516,10 @@
         <v>9</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -533,10 +533,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G2" s="2">
         <v>200</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M2" s="2" t="b">
         <v>1</v>
@@ -566,7 +566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -580,10 +580,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G3">
         <v>200</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="L3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M3" t="b">
         <v>1</v>
@@ -613,7 +613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -621,16 +621,16 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
         <v>18</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
       </c>
       <c r="G4">
         <v>200</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="L4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M4" t="b">
         <v>1</v>
@@ -660,7 +660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -668,13 +668,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
         <v>18</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
       </c>
       <c r="G5">
         <v>200</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="L5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M5" t="b">
         <v>1</v>
